--- a/data/samplebook.xlsx
+++ b/data/samplebook.xlsx
@@ -8,20 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hwangsubin/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7F7678-495E-5D47-8762-2D65AE1DDE3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2914A4-2300-F94D-B239-9EA86887948B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12900" yWindow="780" windowWidth="21300" windowHeight="20220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="53">
   <si>
     <t>학교생활기록부 과년도 독서활동 상황</t>
   </si>
@@ -166,9 +165,6 @@
   </si>
   <si>
     <t>가면 뒤의 소녀(조민우)</t>
-  </si>
-  <si>
-    <t>어둠 속의 파랑새(김도연), 종말의 서점(헬레나 김)</t>
   </si>
   <si>
     <t>동굴 속의 진실(조은결)</t>
@@ -209,7 +205,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -259,15 +255,6 @@
       <family val="2"/>
       <charset val="129"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -454,7 +441,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -476,89 +463,86 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -929,31 +913,31 @@
     </row>
     <row r="3" spans="2:15" ht="13.75" customHeight="1"/>
     <row r="4" spans="2:15" ht="28" customHeight="1">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
     </row>
     <row r="5" spans="2:15" ht="29.25" customHeight="1"/>
     <row r="6" spans="2:15" ht="14" customHeight="1">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
       <c r="O6" s="3" t="s">
         <v>21</v>
       </c>
@@ -969,10 +953,10 @@
       <c r="D8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="34"/>
+      <c r="F8" s="10"/>
       <c r="G8" s="4" t="s">
         <v>7</v>
       </c>
@@ -990,122 +974,122 @@
       <c r="O8" s="11"/>
     </row>
     <row r="9" spans="2:15" ht="20.25" customHeight="1">
-      <c r="B9" s="9">
-        <v>1</v>
-      </c>
-      <c r="C9" s="14" t="s">
+      <c r="B9" s="12">
+        <v>1</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="16">
         <v>2024</v>
       </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="23">
+      <c r="F9" s="17"/>
+      <c r="G9" s="22">
         <v>1</v>
       </c>
       <c r="H9" s="5">
         <v>1</v>
       </c>
-      <c r="I9" s="26" t="s">
+      <c r="I9" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="28"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="27"/>
     </row>
     <row r="10" spans="2:15" ht="20.25" customHeight="1">
-      <c r="B10" s="9"/>
-      <c r="C10" s="15"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="14"/>
       <c r="D10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="24"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="23"/>
       <c r="H10" s="5">
         <v>1</v>
       </c>
-      <c r="I10" s="26" t="s">
+      <c r="I10" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="28"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="27"/>
     </row>
     <row r="11" spans="2:15" ht="20.25" customHeight="1">
-      <c r="B11" s="9"/>
-      <c r="C11" s="15"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="14"/>
       <c r="D11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="24"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="23"/>
       <c r="H11" s="5">
         <v>1</v>
       </c>
-      <c r="I11" s="26" t="s">
+      <c r="I11" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="28"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="27"/>
     </row>
     <row r="12" spans="2:15" ht="20.25" customHeight="1">
-      <c r="B12" s="9"/>
-      <c r="C12" s="15"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="14"/>
       <c r="D12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="24"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="23"/>
       <c r="H12" s="5">
         <v>2</v>
       </c>
-      <c r="I12" s="26" t="s">
+      <c r="I12" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="28"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="27"/>
     </row>
     <row r="13" spans="2:15" ht="20.25" customHeight="1">
-      <c r="B13" s="9"/>
-      <c r="C13" s="16"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="15"/>
       <c r="D13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="21"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="25"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="24"/>
       <c r="H13" s="5">
         <v>2</v>
       </c>
-      <c r="I13" s="26" t="s">
+      <c r="I13" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="28"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="27"/>
     </row>
     <row r="14" spans="2:15" ht="20.25" customHeight="1">
       <c r="B14" s="5">
@@ -1117,121 +1101,121 @@
       <c r="D14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="31">
+      <c r="E14" s="28">
         <v>2024</v>
       </c>
-      <c r="F14" s="32"/>
+      <c r="F14" s="29"/>
       <c r="G14" s="5">
         <v>1</v>
       </c>
       <c r="H14" s="5">
         <v>2</v>
       </c>
-      <c r="I14" s="26" t="s">
+      <c r="I14" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="28"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="27"/>
     </row>
     <row r="15" spans="2:15" ht="20.25" customHeight="1">
-      <c r="B15" s="9">
+      <c r="B15" s="12">
         <v>4</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="30" t="s">
         <v>17</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="16">
         <v>2024</v>
       </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="9">
+      <c r="F15" s="17"/>
+      <c r="G15" s="12">
         <v>1</v>
       </c>
       <c r="H15" s="5">
         <v>1</v>
       </c>
-      <c r="I15" s="26" t="s">
+      <c r="I15" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="28"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="27"/>
     </row>
     <row r="16" spans="2:15" ht="20.25" customHeight="1">
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="30"/>
       <c r="D16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="9"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="12"/>
       <c r="H16" s="5">
         <v>1</v>
       </c>
-      <c r="I16" s="26" t="s">
+      <c r="I16" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="28"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="27"/>
     </row>
     <row r="17" spans="2:15" ht="20.25" customHeight="1">
-      <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="30"/>
       <c r="D17" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="9"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="12"/>
       <c r="H17" s="5">
         <v>2</v>
       </c>
-      <c r="I17" s="26" t="s">
+      <c r="I17" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="28"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="27"/>
     </row>
     <row r="18" spans="2:15" ht="20.25" customHeight="1">
-      <c r="B18" s="9"/>
-      <c r="C18" s="10"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="30"/>
       <c r="D18" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="21"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="9"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="12"/>
       <c r="H18" s="5">
         <v>2</v>
       </c>
-      <c r="I18" s="26" t="s">
+      <c r="I18" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="28"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="27"/>
     </row>
     <row r="19" spans="2:15" ht="20.25" customHeight="1">
       <c r="B19" s="5">
@@ -1243,193 +1227,193 @@
       <c r="D19" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="31">
+      <c r="E19" s="28">
         <v>2024</v>
       </c>
-      <c r="F19" s="32"/>
+      <c r="F19" s="29"/>
       <c r="G19" s="5">
         <v>1</v>
       </c>
       <c r="H19" s="5">
         <v>2</v>
       </c>
-      <c r="I19" s="26" t="s">
+      <c r="I19" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="28"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="27"/>
     </row>
     <row r="20" spans="2:15" ht="20.25" customHeight="1">
-      <c r="B20" s="9">
+      <c r="B20" s="12">
         <v>6</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="30" t="s">
         <v>19</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E20" s="16">
         <v>2024</v>
       </c>
-      <c r="F20" s="18"/>
-      <c r="G20" s="9">
+      <c r="F20" s="17"/>
+      <c r="G20" s="12">
         <v>1</v>
       </c>
       <c r="H20" s="5">
         <v>1</v>
       </c>
-      <c r="I20" s="26" t="s">
+      <c r="I20" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="28"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="27"/>
     </row>
     <row r="21" spans="2:15" ht="20.25" customHeight="1">
-      <c r="B21" s="9"/>
-      <c r="C21" s="10"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="30"/>
       <c r="D21" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="19"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="9"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="12"/>
       <c r="H21" s="5">
         <v>1</v>
       </c>
-      <c r="I21" s="26" t="s">
+      <c r="I21" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="28"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="27"/>
     </row>
     <row r="22" spans="2:15" ht="20.25" customHeight="1">
-      <c r="B22" s="9"/>
-      <c r="C22" s="10"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="30"/>
       <c r="D22" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="19"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="9"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="12"/>
       <c r="H22" s="5">
         <v>2</v>
       </c>
-      <c r="I22" s="26" t="s">
+      <c r="I22" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="28"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="27"/>
     </row>
     <row r="23" spans="2:15" ht="20.25" customHeight="1">
-      <c r="B23" s="9"/>
-      <c r="C23" s="10"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="30"/>
       <c r="D23" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="19"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="9"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="12"/>
       <c r="H23" s="5">
         <v>2</v>
       </c>
-      <c r="I23" s="26" t="s">
+      <c r="I23" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="28"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="27"/>
     </row>
     <row r="24" spans="2:15" ht="20.25" customHeight="1">
-      <c r="B24" s="9"/>
-      <c r="C24" s="10"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="30"/>
       <c r="D24" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="21"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="9"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="12"/>
       <c r="H24" s="5">
         <v>2</v>
       </c>
-      <c r="I24" s="26" t="s">
+      <c r="I24" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="28"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="27"/>
     </row>
     <row r="25" spans="2:15" ht="20.25" customHeight="1">
-      <c r="B25" s="9">
+      <c r="B25" s="12">
         <v>7</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E25" s="16">
         <v>2024</v>
       </c>
-      <c r="F25" s="18"/>
-      <c r="G25" s="9">
+      <c r="F25" s="17"/>
+      <c r="G25" s="12">
         <v>1</v>
       </c>
       <c r="H25" s="5">
         <v>1</v>
       </c>
-      <c r="I25" s="26" t="s">
+      <c r="I25" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="28"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="27"/>
     </row>
     <row r="26" spans="2:15" ht="20.25" customHeight="1">
-      <c r="B26" s="9"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="9"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="12"/>
       <c r="H26" s="5">
         <v>2</v>
       </c>
-      <c r="I26" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="28"/>
+      <c r="I26" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="27"/>
     </row>
     <row r="27" spans="2:15" ht="16" customHeight="1"/>
     <row r="28" spans="2:15" ht="14" customHeight="1">
@@ -1442,14 +1426,14 @@
       <c r="L28" s="1">
         <v>2</v>
       </c>
-      <c r="N28" s="29" t="s">
+      <c r="N28" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="O28" s="7"/>
+      <c r="O28" s="32"/>
     </row>
     <row r="29" spans="2:15" ht="4.75" customHeight="1">
-      <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
+      <c r="N29" s="32"/>
+      <c r="O29" s="32"/>
     </row>
     <row r="30" spans="2:15" ht="28.25" customHeight="1"/>
     <row r="31" spans="2:15" ht="28.25" customHeight="1">
@@ -1492,555 +1476,555 @@
       <c r="D32" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E32" s="12">
         <v>2024</v>
       </c>
-      <c r="F32" s="9"/>
+      <c r="F32" s="12"/>
       <c r="G32" s="5">
         <v>1</v>
       </c>
       <c r="H32" s="5">
         <v>2</v>
       </c>
-      <c r="I32" s="8" t="s">
+      <c r="I32" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="33"/>
+      <c r="M32" s="33"/>
+      <c r="N32" s="33"/>
+      <c r="O32" s="33"/>
     </row>
     <row r="33" spans="2:15" ht="20.25" customHeight="1">
-      <c r="B33" s="9">
+      <c r="B33" s="12">
         <v>8</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E33" s="12">
         <v>2024</v>
       </c>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9">
+      <c r="F33" s="12"/>
+      <c r="G33" s="12">
         <v>1</v>
       </c>
       <c r="H33" s="5">
         <v>1</v>
       </c>
-      <c r="I33" s="8" t="s">
+      <c r="I33" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="33"/>
+      <c r="N33" s="33"/>
+      <c r="O33" s="33"/>
     </row>
     <row r="34" spans="2:15" ht="20.25" customHeight="1">
-      <c r="B34" s="9"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
       <c r="H34" s="5">
         <v>2</v>
       </c>
-      <c r="I34" s="8" t="s">
+      <c r="I34" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="33"/>
+      <c r="M34" s="33"/>
+      <c r="N34" s="33"/>
+      <c r="O34" s="33"/>
     </row>
     <row r="35" spans="2:15" ht="20.25" customHeight="1">
-      <c r="B35" s="9"/>
-      <c r="C35" s="10"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="30"/>
       <c r="D35" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
       <c r="H35" s="5">
         <v>2</v>
       </c>
-      <c r="I35" s="8" t="s">
+      <c r="I35" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="33"/>
+      <c r="M35" s="33"/>
+      <c r="N35" s="33"/>
+      <c r="O35" s="33"/>
     </row>
     <row r="36" spans="2:15" ht="20.25" customHeight="1">
-      <c r="B36" s="9">
+      <c r="B36" s="12">
         <v>9</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="30" t="s">
         <v>24</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E36" s="12">
         <v>2024</v>
       </c>
-      <c r="F36" s="9"/>
+      <c r="F36" s="12"/>
       <c r="G36" s="5">
         <v>1</v>
       </c>
       <c r="H36" s="5">
         <v>2</v>
       </c>
-      <c r="I36" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="8"/>
+      <c r="I36" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="J36" s="33"/>
+      <c r="K36" s="33"/>
+      <c r="L36" s="33"/>
+      <c r="M36" s="33"/>
+      <c r="N36" s="33"/>
+      <c r="O36" s="33"/>
     </row>
     <row r="37" spans="2:15" ht="20.25" customHeight="1">
-      <c r="B37" s="9"/>
-      <c r="C37" s="10"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="30"/>
       <c r="D37" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E37" s="12">
         <v>2025</v>
       </c>
-      <c r="F37" s="9"/>
+      <c r="F37" s="12"/>
       <c r="G37" s="5">
         <v>2</v>
       </c>
       <c r="H37" s="5">
         <v>1</v>
       </c>
-      <c r="I37" s="8" t="s">
+      <c r="I37" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
-      <c r="O37" s="8"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+      <c r="N37" s="33"/>
+      <c r="O37" s="33"/>
     </row>
     <row r="38" spans="2:15" ht="20.25" customHeight="1">
-      <c r="B38" s="9">
+      <c r="B38" s="12">
         <v>10</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="30" t="s">
         <v>25</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E38" s="12">
         <v>2024</v>
       </c>
-      <c r="F38" s="9"/>
+      <c r="F38" s="12"/>
       <c r="G38" s="5">
         <v>1</v>
       </c>
       <c r="H38" s="5">
         <v>2</v>
       </c>
-      <c r="I38" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
+      <c r="I38" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="J38" s="33"/>
+      <c r="K38" s="33"/>
+      <c r="L38" s="33"/>
+      <c r="M38" s="33"/>
+      <c r="N38" s="33"/>
+      <c r="O38" s="33"/>
     </row>
     <row r="39" spans="2:15" ht="20.25" customHeight="1">
-      <c r="B39" s="9"/>
-      <c r="C39" s="10"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="30"/>
       <c r="D39" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E39" s="12">
         <v>2025</v>
       </c>
-      <c r="F39" s="9"/>
+      <c r="F39" s="12"/>
       <c r="G39" s="5">
         <v>2</v>
       </c>
       <c r="H39" s="5">
         <v>1</v>
       </c>
-      <c r="I39" s="8" t="s">
+      <c r="I39" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8"/>
-      <c r="O39" s="8"/>
+      <c r="J39" s="33"/>
+      <c r="K39" s="33"/>
+      <c r="L39" s="33"/>
+      <c r="M39" s="33"/>
+      <c r="N39" s="33"/>
+      <c r="O39" s="33"/>
     </row>
     <row r="40" spans="2:15" ht="20.25" customHeight="1">
-      <c r="B40" s="9">
+      <c r="B40" s="12">
         <v>11</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="30" t="s">
         <v>26</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E40" s="12">
         <v>2024</v>
       </c>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9">
+      <c r="F40" s="12"/>
+      <c r="G40" s="12">
         <v>1</v>
       </c>
       <c r="H40" s="5">
         <v>1</v>
       </c>
-      <c r="I40" s="8" t="s">
+      <c r="I40" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="8"/>
-      <c r="O40" s="8"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="33"/>
+      <c r="L40" s="33"/>
+      <c r="M40" s="33"/>
+      <c r="N40" s="33"/>
+      <c r="O40" s="33"/>
     </row>
     <row r="41" spans="2:15" ht="20.25" customHeight="1">
-      <c r="B41" s="9"/>
-      <c r="C41" s="10"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="30"/>
       <c r="D41" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
       <c r="H41" s="5">
         <v>2</v>
       </c>
-      <c r="I41" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
-      <c r="N41" s="8"/>
-      <c r="O41" s="8"/>
+      <c r="I41" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="J41" s="33"/>
+      <c r="K41" s="33"/>
+      <c r="L41" s="33"/>
+      <c r="M41" s="33"/>
+      <c r="N41" s="33"/>
+      <c r="O41" s="33"/>
     </row>
     <row r="42" spans="2:15" ht="20.25" customHeight="1">
-      <c r="B42" s="9"/>
-      <c r="C42" s="10"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="30"/>
       <c r="D42" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="9">
+      <c r="E42" s="12">
         <v>2025</v>
       </c>
-      <c r="F42" s="9"/>
+      <c r="F42" s="12"/>
       <c r="G42" s="5">
         <v>2</v>
       </c>
       <c r="H42" s="5">
         <v>1</v>
       </c>
-      <c r="I42" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
-      <c r="N42" s="8"/>
-      <c r="O42" s="8"/>
+      <c r="I42" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="J42" s="33"/>
+      <c r="K42" s="33"/>
+      <c r="L42" s="33"/>
+      <c r="M42" s="33"/>
+      <c r="N42" s="33"/>
+      <c r="O42" s="33"/>
     </row>
     <row r="43" spans="2:15" ht="28.25" customHeight="1">
-      <c r="B43" s="9">
+      <c r="B43" s="12">
         <v>12</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="30" t="s">
         <v>27</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="9">
+      <c r="E43" s="12">
         <v>2024</v>
       </c>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9">
+      <c r="F43" s="12"/>
+      <c r="G43" s="12">
         <v>1</v>
       </c>
       <c r="H43" s="5">
         <v>1</v>
       </c>
-      <c r="I43" s="8" t="s">
+      <c r="I43" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="8"/>
-      <c r="O43" s="8"/>
+      <c r="J43" s="33"/>
+      <c r="K43" s="33"/>
+      <c r="L43" s="33"/>
+      <c r="M43" s="33"/>
+      <c r="N43" s="33"/>
+      <c r="O43" s="33"/>
     </row>
     <row r="44" spans="2:15" ht="20.25" customHeight="1">
-      <c r="B44" s="9"/>
-      <c r="C44" s="10"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="30"/>
       <c r="D44" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
       <c r="H44" s="5">
         <v>2</v>
       </c>
-      <c r="I44" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="8"/>
-      <c r="O44" s="8"/>
+      <c r="I44" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="J44" s="33"/>
+      <c r="K44" s="33"/>
+      <c r="L44" s="33"/>
+      <c r="M44" s="33"/>
+      <c r="N44" s="33"/>
+      <c r="O44" s="33"/>
     </row>
     <row r="45" spans="2:15" ht="20.25" customHeight="1">
-      <c r="B45" s="9"/>
-      <c r="C45" s="10"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="30"/>
       <c r="D45" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
       <c r="H45" s="5">
         <v>2</v>
       </c>
-      <c r="I45" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="8"/>
-      <c r="O45" s="8"/>
+      <c r="I45" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="J45" s="33"/>
+      <c r="K45" s="33"/>
+      <c r="L45" s="33"/>
+      <c r="M45" s="33"/>
+      <c r="N45" s="33"/>
+      <c r="O45" s="33"/>
     </row>
     <row r="46" spans="2:15" ht="20.25" customHeight="1">
-      <c r="B46" s="9"/>
-      <c r="C46" s="10"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="30"/>
       <c r="D46" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
       <c r="H46" s="5">
         <v>2</v>
       </c>
-      <c r="I46" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="8"/>
-      <c r="N46" s="8"/>
-      <c r="O46" s="8"/>
+      <c r="I46" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="J46" s="33"/>
+      <c r="K46" s="33"/>
+      <c r="L46" s="33"/>
+      <c r="M46" s="33"/>
+      <c r="N46" s="33"/>
+      <c r="O46" s="33"/>
     </row>
     <row r="47" spans="2:15" ht="20.25" customHeight="1">
-      <c r="B47" s="9"/>
-      <c r="C47" s="10"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="30"/>
       <c r="D47" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E47" s="9">
+      <c r="E47" s="12">
         <v>2025</v>
       </c>
-      <c r="F47" s="9"/>
+      <c r="F47" s="12"/>
       <c r="G47" s="5">
         <v>2</v>
       </c>
       <c r="H47" s="5">
         <v>1</v>
       </c>
-      <c r="I47" s="8" t="s">
+      <c r="I47" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
-      <c r="L47" s="8"/>
-      <c r="M47" s="8"/>
-      <c r="N47" s="8"/>
-      <c r="O47" s="8"/>
+      <c r="J47" s="33"/>
+      <c r="K47" s="33"/>
+      <c r="L47" s="33"/>
+      <c r="M47" s="33"/>
+      <c r="N47" s="33"/>
+      <c r="O47" s="33"/>
     </row>
     <row r="48" spans="2:15" ht="20.25" customHeight="1">
-      <c r="B48" s="9">
+      <c r="B48" s="12">
         <v>13</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C48" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="D48" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="9">
+      <c r="E48" s="12">
         <v>2024</v>
       </c>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9">
+      <c r="F48" s="12"/>
+      <c r="G48" s="12">
         <v>1</v>
       </c>
       <c r="H48" s="5">
         <v>1</v>
       </c>
-      <c r="I48" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="8"/>
-      <c r="M48" s="8"/>
-      <c r="N48" s="8"/>
-      <c r="O48" s="8"/>
+      <c r="I48" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="J48" s="33"/>
+      <c r="K48" s="33"/>
+      <c r="L48" s="33"/>
+      <c r="M48" s="33"/>
+      <c r="N48" s="33"/>
+      <c r="O48" s="33"/>
     </row>
     <row r="49" spans="2:15" ht="20.25" customHeight="1">
-      <c r="B49" s="9"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
       <c r="H49" s="5">
         <v>2</v>
       </c>
-      <c r="I49" s="8" t="s">
+      <c r="I49" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
-      <c r="M49" s="8"/>
-      <c r="N49" s="8"/>
-      <c r="O49" s="8"/>
+      <c r="J49" s="33"/>
+      <c r="K49" s="33"/>
+      <c r="L49" s="33"/>
+      <c r="M49" s="33"/>
+      <c r="N49" s="33"/>
+      <c r="O49" s="33"/>
     </row>
     <row r="50" spans="2:15" ht="20.25" customHeight="1">
-      <c r="B50" s="9"/>
-      <c r="C50" s="10"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="30"/>
       <c r="D50" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
       <c r="H50" s="5">
         <v>2</v>
       </c>
-      <c r="I50" s="8" t="s">
+      <c r="I50" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
-      <c r="L50" s="8"/>
-      <c r="M50" s="8"/>
-      <c r="N50" s="8"/>
-      <c r="O50" s="8"/>
+      <c r="J50" s="33"/>
+      <c r="K50" s="33"/>
+      <c r="L50" s="33"/>
+      <c r="M50" s="33"/>
+      <c r="N50" s="33"/>
+      <c r="O50" s="33"/>
     </row>
     <row r="51" spans="2:15" ht="20.25" customHeight="1">
-      <c r="B51" s="9">
+      <c r="B51" s="12">
         <v>14</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C51" s="30" t="s">
         <v>29</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E51" s="9">
+      <c r="E51" s="12">
         <v>2024</v>
       </c>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9">
+      <c r="F51" s="12"/>
+      <c r="G51" s="12">
         <v>1</v>
       </c>
       <c r="H51" s="5">
         <v>1</v>
       </c>
-      <c r="I51" s="8" t="s">
+      <c r="I51" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
-      <c r="L51" s="8"/>
-      <c r="M51" s="8"/>
-      <c r="N51" s="8"/>
-      <c r="O51" s="8"/>
+      <c r="J51" s="33"/>
+      <c r="K51" s="33"/>
+      <c r="L51" s="33"/>
+      <c r="M51" s="33"/>
+      <c r="N51" s="33"/>
+      <c r="O51" s="33"/>
     </row>
     <row r="52" spans="2:15" ht="20.25" customHeight="1">
-      <c r="B52" s="9"/>
-      <c r="C52" s="10"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="30"/>
       <c r="D52" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
       <c r="H52" s="5">
         <v>1</v>
       </c>
-      <c r="I52" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="J52" s="8"/>
-      <c r="K52" s="8"/>
-      <c r="L52" s="8"/>
-      <c r="M52" s="8"/>
-      <c r="N52" s="8"/>
-      <c r="O52" s="8"/>
+      <c r="I52" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="J52" s="33"/>
+      <c r="K52" s="33"/>
+      <c r="L52" s="33"/>
+      <c r="M52" s="33"/>
+      <c r="N52" s="33"/>
+      <c r="O52" s="33"/>
     </row>
     <row r="53" spans="2:15" ht="20.25" customHeight="1">
-      <c r="B53" s="9"/>
-      <c r="C53" s="10"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="30"/>
       <c r="D53" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
       <c r="H53" s="5">
         <v>2</v>
       </c>
-      <c r="I53" s="8" t="s">
+      <c r="I53" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
-      <c r="L53" s="8"/>
-      <c r="M53" s="8"/>
-      <c r="N53" s="8"/>
-      <c r="O53" s="8"/>
+      <c r="J53" s="33"/>
+      <c r="K53" s="33"/>
+      <c r="L53" s="33"/>
+      <c r="M53" s="33"/>
+      <c r="N53" s="33"/>
+      <c r="O53" s="33"/>
     </row>
     <row r="54" spans="2:15" ht="17.25" customHeight="1"/>
     <row r="55" spans="2:15" ht="14" customHeight="1">
@@ -2053,102 +2037,18 @@
       <c r="L55" s="1">
         <v>2</v>
       </c>
-      <c r="N55" s="29" t="s">
+      <c r="N55" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="O55" s="7"/>
+      <c r="O55" s="32"/>
     </row>
     <row r="56" spans="2:15" ht="4.75" customHeight="1">
-      <c r="N56" s="7"/>
-      <c r="O56" s="7"/>
+      <c r="N56" s="32"/>
+      <c r="O56" s="32"/>
     </row>
     <row r="57" spans="2:15" ht="28.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="100">
-    <mergeCell ref="B4:O4"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="I8:O8"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="E9:F13"/>
-    <mergeCell ref="G9:G13"/>
-    <mergeCell ref="I9:O9"/>
-    <mergeCell ref="I10:O10"/>
-    <mergeCell ref="I11:O11"/>
-    <mergeCell ref="I12:O12"/>
-    <mergeCell ref="I13:O13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="I14:O14"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="E15:F18"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="I15:O15"/>
-    <mergeCell ref="I16:O16"/>
-    <mergeCell ref="I17:O17"/>
-    <mergeCell ref="I18:O18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="I19:O19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="C20:C24"/>
-    <mergeCell ref="E20:F24"/>
-    <mergeCell ref="G20:G24"/>
-    <mergeCell ref="I20:O20"/>
-    <mergeCell ref="I21:O21"/>
-    <mergeCell ref="I22:O22"/>
-    <mergeCell ref="I23:O23"/>
-    <mergeCell ref="I24:O24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="I25:O25"/>
-    <mergeCell ref="I26:O26"/>
-    <mergeCell ref="N28:O29"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="I31:O31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="I32:O32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:F35"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="I33:O33"/>
-    <mergeCell ref="I34:O34"/>
-    <mergeCell ref="I35:O35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="I36:O36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="I37:O37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="I38:O38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="I39:O39"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="E40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="I40:O40"/>
-    <mergeCell ref="I41:O41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="I42:O42"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="C43:C47"/>
-    <mergeCell ref="E43:F46"/>
-    <mergeCell ref="G43:G46"/>
-    <mergeCell ref="I43:O43"/>
-    <mergeCell ref="I44:O44"/>
-    <mergeCell ref="I45:O45"/>
-    <mergeCell ref="I46:O46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="I47:O47"/>
     <mergeCell ref="N55:O56"/>
     <mergeCell ref="I48:O48"/>
     <mergeCell ref="I49:O49"/>
@@ -2165,6 +2065,90 @@
     <mergeCell ref="D48:D49"/>
     <mergeCell ref="E48:F50"/>
     <mergeCell ref="G48:G50"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="C43:C47"/>
+    <mergeCell ref="E43:F46"/>
+    <mergeCell ref="G43:G46"/>
+    <mergeCell ref="I43:O43"/>
+    <mergeCell ref="I44:O44"/>
+    <mergeCell ref="I45:O45"/>
+    <mergeCell ref="I46:O46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="I47:O47"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="E40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="I40:O40"/>
+    <mergeCell ref="I41:O41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="I42:O42"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="I38:O38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="I39:O39"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="I36:O36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="I37:O37"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="I32:O32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:F35"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="I33:O33"/>
+    <mergeCell ref="I34:O34"/>
+    <mergeCell ref="I35:O35"/>
+    <mergeCell ref="I25:O25"/>
+    <mergeCell ref="I26:O26"/>
+    <mergeCell ref="N28:O29"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="I31:O31"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="I19:O19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="C20:C24"/>
+    <mergeCell ref="E20:F24"/>
+    <mergeCell ref="G20:G24"/>
+    <mergeCell ref="I20:O20"/>
+    <mergeCell ref="I21:O21"/>
+    <mergeCell ref="I22:O22"/>
+    <mergeCell ref="I23:O23"/>
+    <mergeCell ref="I24:O24"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="I14:O14"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="E15:F18"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="I15:O15"/>
+    <mergeCell ref="I16:O16"/>
+    <mergeCell ref="I17:O17"/>
+    <mergeCell ref="I18:O18"/>
+    <mergeCell ref="B4:O4"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="I8:O8"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="E9:F13"/>
+    <mergeCell ref="G9:G13"/>
+    <mergeCell ref="I9:O9"/>
+    <mergeCell ref="I10:O10"/>
+    <mergeCell ref="I11:O11"/>
+    <mergeCell ref="I12:O12"/>
+    <mergeCell ref="I13:O13"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -2174,558 +2158,4 @@
     <brk id="56" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EBC64DB-E6F3-CC4C-AE55-41598FC2EE55}">
-  <dimension ref="A1:I23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:I23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2">
-        <v>2024</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3">
-        <v>2024</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3">
-        <v>2024</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="I3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4">
-        <v>2024</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4">
-        <v>2024</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5">
-        <v>2024</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5">
-        <v>2024</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>2</v>
-      </c>
-      <c r="I5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6">
-        <v>2024</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6">
-        <v>2024</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>2</v>
-      </c>
-      <c r="I6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7">
-        <v>2024</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7">
-        <v>2025</v>
-      </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8">
-        <v>2024</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8">
-        <v>2024</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>2</v>
-      </c>
-      <c r="I8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9">
-        <v>2024</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9">
-        <v>2025</v>
-      </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10">
-        <v>2024</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10">
-        <v>2024</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11">
-        <v>2024</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11">
-        <v>2024</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>2</v>
-      </c>
-      <c r="I11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12">
-        <v>2024</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12">
-        <v>2025</v>
-      </c>
-      <c r="G12">
-        <v>2</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13">
-        <v>2024</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13">
-        <v>2024</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14">
-        <v>2024</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14">
-        <v>2024</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>2</v>
-      </c>
-      <c r="I14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15">
-        <v>2024</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15">
-        <v>2024</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>2</v>
-      </c>
-      <c r="I15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16">
-        <v>2024</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16">
-        <v>2024</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>2</v>
-      </c>
-      <c r="I16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17">
-        <v>2024</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17">
-        <v>2025</v>
-      </c>
-      <c r="G17">
-        <v>2</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18">
-        <v>2024</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>42</v>
-      </c>
-      <c r="F18">
-        <v>2024</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19">
-        <v>2024</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19" t="s">
-        <v>43</v>
-      </c>
-      <c r="F19">
-        <v>2024</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>2</v>
-      </c>
-      <c r="I19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="F20">
-        <v>2024</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>2</v>
-      </c>
-      <c r="I20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="F21">
-        <v>2024</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="F22">
-        <v>2024</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="F23">
-        <v>2024</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <v>2</v>
-      </c>
-      <c r="I23" t="s">
-        <v>52</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>